--- a/Projects/MARSRU2_SAND/Data/2019/KPIs to SQL.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/KPIs to SQL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPI with Codes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="132">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -394,6 +394,27 @@
   </si>
   <si>
     <t xml:space="preserve">В магазине тип выкладки А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ Liter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий собаки (включая лакомства на основной полке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля полки Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU Другие производители </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля ассортимента  Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS Другие производители </t>
   </si>
   <si>
     <t xml:space="preserve">Категория товаров для животных примыкает к ПРОМО АЛЛЕЕ, находится дальше 5-ти метров от входа и визуально доступна покупателям по ходу их движения без необходимости оборачиваться</t>
@@ -411,6 +432,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,18 +454,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -519,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -628,6 +653,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -705,17 +738,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="289.602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6005,6 +6040,265 @@
       <c r="K143" s="1" t="str">
         <f aca="false">CONCATENATE(F143,E143,G143,A143,H143,A143,I143,D143,J143)</f>
         <v>('1279', NULL, '4704', '4704', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="27" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f aca="false">IF(EXACT(C145,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="1" t="str">
+        <f aca="false">CONCATENATE(F145,E145,G145,A145,H145,A145,I145,D145,J145)</f>
+        <v>('1430', NULL, '1010', '1010', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="27" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f aca="false">IF(EXACT(C146,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>1431</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="1" t="str">
+        <f aca="false">CONCATENATE(F146,E146,G146,A146,H146,A146,I146,D146,J146)</f>
+        <v>('1431', NULL, '1011', '1011', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="27" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f aca="false">IF(EXACT(C147,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="1" t="str">
+        <f aca="false">CONCATENATE(F147,E147,G147,A147,H147,A147,I147,D147,J147)</f>
+        <v>('1432', NULL, '1013', '1013', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f aca="false">IF(EXACT(C148,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>1433</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="1" t="str">
+        <f aca="false">CONCATENATE(F148,E148,G148,A148,H148,A148,I148,D148,J148)</f>
+        <v>('1433', NULL, '1012', '1012', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="27" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="1" t="str">
+        <f aca="false">IF(EXACT(C149,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="1" t="str">
+        <f aca="false">CONCATENATE(F149,E149,G149,A149,H149,A149,I149,D149,J149)</f>
+        <v>('1434', NULL, '1014', '1014', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="27" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="str">
+        <f aca="false">IF(EXACT(C150,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>1435</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="1" t="str">
+        <f aca="false">CONCATENATE(F150,E150,G150,A150,H150,A150,I150,D150,J150)</f>
+        <v>('1435', NULL, '1015', '1015', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="27" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f aca="false">IF(EXACT(C151,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>1436</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="1" t="str">
+        <f aca="false">CONCATENATE(F151,E151,G151,A151,H151,A151,I151,D151,J151)</f>
+        <v>('1436', NULL, '1016', '1016', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
   </sheetData>
@@ -6023,17 +6317,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K120" activeCellId="0" sqref="K120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E158" activeCellId="0" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8037,7 +8331,7 @@
         <v>2219</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>20</v>
@@ -10035,7 +10329,7 @@
         <v>4219</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>20</v>
@@ -11325,10 +11619,269 @@
         <v>('2279', NULL, '4704-RUS', '4704 - В магазине тип выкладки А', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
       </c>
     </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="27" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f aca="false">IF(EXACT(C145,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>2430</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="1" t="str">
+        <f aca="false">CONCATENATE(F145,E145,G145,CONCATENATE(A145,"-RUS"),H145,CONCATENATE(A145," - ",B145),I145,D145,J145)</f>
+        <v>('2430', NULL, '1010-RUS', '1010 - Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ Liter)', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="27" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f aca="false">IF(EXACT(C146,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="1" t="str">
+        <f aca="false">CONCATENATE(F146,E146,G146,CONCATENATE(A146,"-RUS"),H146,CONCATENATE(A146," - ",B146),I146,D146,J146)</f>
+        <v>('2431', NULL, '1011-RUS', '1011 - Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий собаки (включая лакомства на основной полке)', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="27" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f aca="false">IF(EXACT(C147,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>2432</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="1" t="str">
+        <f aca="false">CONCATENATE(F147,E147,G147,CONCATENATE(A147,"-RUS"),H147,CONCATENATE(A147," - ",B147),I147,D147,J147)</f>
+        <v>('2432', NULL, '1013-RUS', '1013 - Доля полки Других производителей', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f aca="false">IF(EXACT(C148,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>2433</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="1" t="str">
+        <f aca="false">CONCATENATE(F148,E148,G148,CONCATENATE(A148,"-RUS"),H148,CONCATENATE(A148," - ",B148),I148,D148,J148)</f>
+        <v>('2433', NULL, '1012-RUS', '1012 - Укажите количество SKU Другие производители ', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="27" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="1" t="str">
+        <f aca="false">IF(EXACT(C149,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>2434</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="1" t="str">
+        <f aca="false">CONCATENATE(F149,E149,G149,CONCATENATE(A149,"-RUS"),H149,CONCATENATE(A149," - ",B149),I149,D149,J149)</f>
+        <v>('2434', NULL, '1014-RUS', '1014 - Укажите количество SKU MARS', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="27" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="str">
+        <f aca="false">IF(EXACT(C150,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>2435</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="1" t="str">
+        <f aca="false">CONCATENATE(F150,E150,G150,CONCATENATE(A150,"-RUS"),H150,CONCATENATE(A150," - ",B150),I150,D150,J150)</f>
+        <v>('2435', NULL, '1015-RUS', '1015 - Доля ассортимента  Других производителей', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="27" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f aca="false">IF(EXACT(C151,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>2436</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="1" t="str">
+        <f aca="false">CONCATENATE(F151,E151,G151,CONCATENATE(A151,"-RUS"),H151,CONCATENATE(A151," - ",B151),I151,D151,J151)</f>
+        <v>('2436', NULL, '1016-RUS', '1016 - PSS Другие производители ', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Projects/MARSRU2_SAND/Data/2019/KPIs to SQL.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/KPIs to SQL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI with Codes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="133">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -396,28 +396,31 @@
     <t xml:space="preserve">В магазине тип выкладки А</t>
   </si>
   <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке  БЕЗ Liter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий собаки (включая лакомства на основной полке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля полки Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU Другие производители </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля ассортимента  Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS Другие производители </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Категория товаров для животных примыкает к ПРОМО АЛЛЕЕ, находится дальше 5-ти метров от входа и визуально доступна покупателям по ходу их движения без необходимости оборачиваться</t>
+  </si>
+  <si>
     <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ Liter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий собаки (включая лакомства на основной полке)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доля полки Других производителей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Укажите количество SKU Другие производители </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Укажите количество SKU MARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доля ассортимента  Других производителей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSS Другие производители </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Категория товаров для животных примыкает к ПРОМО АЛЛЕЕ, находится дальше 5-ти метров от входа и визуально доступна покупателям по ходу их движения без необходимости оборачиваться</t>
   </si>
 </sst>
 </file>
@@ -740,17 +743,17 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="289.602040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="286.454081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6041,6 +6044,19 @@
         <f aca="false">CONCATENATE(F143,E143,G143,A143,H143,A143,I143,D143,J143)</f>
         <v>('1279', NULL, '4704', '4704', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
       </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="n">
@@ -6319,15 +6335,15 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E158" activeCellId="0" sqref="E158"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K145" activeCellId="0" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11619,12 +11635,25 @@
         <v>('2279', NULL, '4704-RUS', '4704 - В магазине тип выкладки А', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
       </c>
     </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+    </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="n">
         <v>1010</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
